--- a/OK-Plus/Components/Asset Type Tree /AT Tree Features.xlsx
+++ b/OK-Plus/Components/Asset Type Tree /AT Tree Features.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tyroneg/Documents/PragmaDev/pragma-design/OK-Plus/Components/Asset Type Tree /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08C1B68D-9856-FA4A-896A-DFDFB8F438ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0EB7A9-82B6-2D40-AB83-3248CE38C81B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="460" windowWidth="25600" windowHeight="14600" xr2:uid="{8C381044-2096-BF44-B1B5-C5F55EA5E1C5}"/>
+    <workbookView xWindow="4320" yWindow="2640" windowWidth="28720" windowHeight="18480" xr2:uid="{8C381044-2096-BF44-B1B5-C5F55EA5E1C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,26 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t xml:space="preserve">Sort the order of records visible based on a user defined sequence for records on the same level. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort the order of records visible based on an alphabetical order. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort the order of records visible based on the record codes. </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Insert a variety of types of records as children of a record.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cut records and move them to different locations in the tree. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">See records made inActive or deleted. </t>
-  </si>
-  <si>
     <t xml:space="preserve">See a legend to view the definition of visual cues. </t>
   </si>
   <si>
@@ -60,9 +45,6 @@
     <t>Display Options</t>
   </si>
   <si>
-    <t>Move a record with in a tree (effect off this on its children) - Drag and drop</t>
-  </si>
-  <si>
     <t>Browser Function</t>
   </si>
   <si>
@@ -73,6 +55,21 @@
   </si>
   <si>
     <t>Features for AT Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sort the order of records visible based on a user defined sequence for records on the same level. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sort the order of records visible based on an alphabetical order. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sort the order of records visible based on the record codes. </t>
+  </si>
+  <si>
+    <t>Move a record with in a tree (effect of this on its children) - Drag and drop</t>
+  </si>
+  <si>
+    <t>See records made inActive or deleted. Show count along side if has children</t>
   </si>
 </sst>
 </file>
@@ -122,7 +119,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -146,26 +143,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </bottom>
@@ -175,42 +157,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -527,141 +482,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA681E89-1253-8544-B569-34764BEAC3E7}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="70.83203125" customWidth="1"/>
-    <col min="2" max="2" width="54.5" customWidth="1"/>
+    <col min="1" max="1" width="117.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="12" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="11"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:1" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="8"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="9"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A13:B13"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>